--- a/upload/saidas-2025.xlsx
+++ b/upload/saidas-2025.xlsx
@@ -1,37 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF09EDD0-3D6C-4427-A41C-764C43C5512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="21">
   <si>
     <t>unidade</t>
   </si>
@@ -99,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -158,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,7 +162,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -186,7 +174,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -233,23 +221,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -285,23 +256,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:XFD157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:XFD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,16 +558,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>2025</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -624,10 +578,10 @@
         <v>2025</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -638,10 +592,10 @@
         <v>2025</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -652,10 +606,10 @@
         <v>2025</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -666,10 +620,10 @@
         <v>2025</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -680,7 +634,7 @@
         <v>2025</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
         <v>30</v>
@@ -694,10 +648,10 @@
         <v>2025</v>
       </c>
       <c r="C17" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -708,10 +662,10 @@
         <v>2025</v>
       </c>
       <c r="C18" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -722,38 +676,38 @@
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -764,10 +718,10 @@
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -778,10 +732,10 @@
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -792,10 +746,10 @@
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -806,10 +760,10 @@
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -820,10 +774,10 @@
         <v>2025</v>
       </c>
       <c r="C26" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -834,10 +788,10 @@
         <v>2025</v>
       </c>
       <c r="C27" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -848,52 +802,52 @@
         <v>2025</v>
       </c>
       <c r="C28" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
         <v>2025</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29" s="3">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2">
         <v>2025</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2">
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -904,10 +858,10 @@
         <v>2025</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -918,10 +872,10 @@
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -932,7 +886,7 @@
         <v>2025</v>
       </c>
       <c r="C34" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -946,7 +900,7 @@
         <v>2025</v>
       </c>
       <c r="C35" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -960,7 +914,7 @@
         <v>2025</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -974,7 +928,7 @@
         <v>2025</v>
       </c>
       <c r="C37" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -982,58 +936,58 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2">
         <v>2025</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D38" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C39" s="2">
         <v>8</v>
       </c>
-      <c r="B39" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2</v>
-      </c>
       <c r="D39" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2">
         <v>2025</v>
       </c>
       <c r="C40" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2">
         <v>2025</v>
       </c>
       <c r="C41" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1044,10 +998,10 @@
         <v>2025</v>
       </c>
       <c r="C42" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1058,10 +1012,10 @@
         <v>2025</v>
       </c>
       <c r="C43" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1072,10 +1026,10 @@
         <v>2025</v>
       </c>
       <c r="C44" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1086,10 +1040,10 @@
         <v>2025</v>
       </c>
       <c r="C45" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D45" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1100,80 +1054,80 @@
         <v>2025</v>
       </c>
       <c r="C46" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46" s="3">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="2">
         <v>2025</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47" s="3">
-        <v>318</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2">
         <v>2025</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D48" s="3">
-        <v>275</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="2">
         <v>2025</v>
       </c>
       <c r="C49" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D49" s="3">
-        <v>323</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C50" s="2">
         <v>9</v>
       </c>
-      <c r="B50" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C50" s="2">
-        <v>4</v>
-      </c>
       <c r="D50" s="3">
-        <v>329</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="2">
         <v>2025</v>
       </c>
       <c r="C51" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51" s="3">
-        <v>328</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1184,10 +1138,10 @@
         <v>2025</v>
       </c>
       <c r="C52" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52" s="3">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1198,10 +1152,10 @@
         <v>2025</v>
       </c>
       <c r="C53" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D53" s="3">
-        <v>326</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1212,10 +1166,10 @@
         <v>2025</v>
       </c>
       <c r="C54" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D54" s="3">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1226,94 +1180,94 @@
         <v>2025</v>
       </c>
       <c r="C55" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D55" s="3">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2">
         <v>2025</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D56" s="3">
-        <v>4</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" s="2">
         <v>2025</v>
       </c>
       <c r="C57" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D57" s="3">
-        <v>10</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="2">
         <v>2025</v>
       </c>
       <c r="C58" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D58" s="3">
-        <v>7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2">
         <v>2025</v>
       </c>
       <c r="C59" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D59" s="3">
-        <v>10</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" s="2">
         <v>2025</v>
       </c>
       <c r="C60" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3">
-        <v>6</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C61" s="2">
         <v>10</v>
       </c>
-      <c r="B61" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C61" s="2">
-        <v>6</v>
-      </c>
       <c r="D61" s="3">
-        <v>7</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1324,10 +1278,10 @@
         <v>2025</v>
       </c>
       <c r="C62" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1338,10 +1292,10 @@
         <v>2025</v>
       </c>
       <c r="C63" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D63" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1352,108 +1306,108 @@
         <v>2025</v>
       </c>
       <c r="C64" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D64" s="3">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2">
         <v>2025</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" s="3">
-        <v>143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2">
         <v>2025</v>
       </c>
       <c r="C66" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" s="3">
-        <v>133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" s="2">
         <v>2025</v>
       </c>
       <c r="C67" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67" s="3">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" s="2">
         <v>2025</v>
       </c>
       <c r="C68" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D68" s="3">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" s="2">
         <v>2025</v>
       </c>
       <c r="C69" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D69" s="3">
-        <v>178</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2">
         <v>2025</v>
       </c>
       <c r="C70" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D70" s="3">
-        <v>170</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71" s="2">
         <v>2025</v>
       </c>
       <c r="C71" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D71" s="3">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1464,10 +1418,10 @@
         <v>2025</v>
       </c>
       <c r="C72" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D72" s="3">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1478,122 +1432,122 @@
         <v>2025</v>
       </c>
       <c r="C73" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D73" s="3">
-        <v>184</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="2">
         <v>2025</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" s="3">
-        <v>344</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75" s="2">
         <v>2025</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" s="3">
-        <v>346</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76" s="2">
         <v>2025</v>
       </c>
       <c r="C76" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="3">
-        <v>450</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="2">
         <v>2025</v>
       </c>
       <c r="C77" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77" s="3">
-        <v>539</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" s="2">
         <v>2025</v>
       </c>
       <c r="C78" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D78" s="3">
-        <v>568</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" s="2">
         <v>2025</v>
       </c>
       <c r="C79" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" s="3">
-        <v>503</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80" s="2">
         <v>2025</v>
       </c>
       <c r="C80" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D80" s="3">
-        <v>383</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81" s="2">
         <v>2025</v>
       </c>
       <c r="C81" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D81" s="3">
-        <v>319</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1604,141 +1558,141 @@
         <v>2025</v>
       </c>
       <c r="C82" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D82" s="3">
-        <v>301</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" s="2">
         <v>2025</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="3">
-        <v>1037</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" s="2">
         <v>2025</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" s="3">
-        <v>972</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" s="2">
         <v>2025</v>
       </c>
       <c r="C85" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" s="3">
-        <v>1105</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86" s="2">
         <v>2025</v>
       </c>
       <c r="C86" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" s="3">
-        <v>1054</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87" s="2">
         <v>2025</v>
       </c>
       <c r="C87" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D87" s="3">
-        <v>1049</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="2">
         <v>2025</v>
       </c>
       <c r="C88" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88" s="3">
-        <v>1042</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89" s="2">
         <v>2025</v>
       </c>
       <c r="C89" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" s="3">
-        <v>1102</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90" s="2">
         <v>2025</v>
       </c>
       <c r="C90" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="3">
-        <v>1088</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="2">
         <v>2025</v>
       </c>
       <c r="C91" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" s="3">
-        <v>1079</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B92" s="2">
         <v>2025</v>
@@ -1747,12 +1701,12 @@
         <v>1</v>
       </c>
       <c r="D92" s="3">
-        <v>1157</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93" s="2">
         <v>2025</v>
@@ -1761,12 +1715,12 @@
         <v>2</v>
       </c>
       <c r="D93" s="3">
-        <v>994</v>
+        <v>972</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B94" s="2">
         <v>2025</v>
@@ -1775,12 +1729,12 @@
         <v>3</v>
       </c>
       <c r="D94" s="3">
-        <v>1101</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95" s="2">
         <v>2025</v>
@@ -1789,12 +1743,12 @@
         <v>4</v>
       </c>
       <c r="D95" s="3">
-        <v>1166</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B96" s="2">
         <v>2025</v>
@@ -1803,12 +1757,12 @@
         <v>5</v>
       </c>
       <c r="D96" s="3">
-        <v>1182</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97" s="2">
         <v>2025</v>
@@ -1817,12 +1771,12 @@
         <v>6</v>
       </c>
       <c r="D97" s="3">
-        <v>1142</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98" s="2">
         <v>2025</v>
@@ -1831,12 +1785,12 @@
         <v>7</v>
       </c>
       <c r="D98" s="3">
-        <v>1169</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99" s="2">
         <v>2025</v>
@@ -1845,12 +1799,12 @@
         <v>8</v>
       </c>
       <c r="D99" s="3">
-        <v>1200</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B100" s="2">
         <v>2025</v>
@@ -1859,999 +1813,1004 @@
         <v>9</v>
       </c>
       <c r="D100" s="3">
-        <v>1105</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B101" s="2">
         <v>2025</v>
       </c>
       <c r="C101" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D101" s="3">
-        <v>127</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B102" s="2">
         <v>2025</v>
       </c>
       <c r="C102" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" s="3">
-        <v>62</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B103" s="2">
         <v>2025</v>
       </c>
       <c r="C103" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" s="3">
-        <v>32</v>
+        <v>994</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104" s="2">
         <v>2025</v>
       </c>
       <c r="C104" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104" s="3">
-        <v>22</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105" s="2">
         <v>2025</v>
       </c>
       <c r="C105" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="3">
-        <v>75</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B106" s="2">
         <v>2025</v>
       </c>
       <c r="C106" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106" s="3">
-        <v>69</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B107" s="2">
         <v>2025</v>
       </c>
       <c r="C107" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107" s="3">
-        <v>80</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B108" s="2">
         <v>2025</v>
       </c>
       <c r="C108" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D108" s="3">
-        <v>71</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B109" s="2">
         <v>2025</v>
       </c>
       <c r="C109" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D109" s="3">
-        <v>51</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B110" s="2">
         <v>2025</v>
       </c>
       <c r="C110" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D110" s="3">
-        <v>683</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B111" s="2">
         <v>2025</v>
       </c>
       <c r="C111" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D111" s="3">
-        <v>611</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" s="2">
         <v>2025</v>
       </c>
       <c r="C112" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112" s="3">
-        <v>687</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" s="2">
         <v>2025</v>
       </c>
       <c r="C113" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113" s="3">
-        <v>666</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114" s="2">
         <v>2025</v>
       </c>
       <c r="C114" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D114" s="3">
-        <v>639</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115" s="2">
         <v>2025</v>
       </c>
       <c r="C115" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D115" s="3">
-        <v>653</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116" s="2">
         <v>2025</v>
       </c>
       <c r="C116" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D116" s="3">
-        <v>671</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117" s="2">
         <v>2025</v>
       </c>
       <c r="C117" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D117" s="3">
-        <v>615</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118" s="2">
         <v>2025</v>
       </c>
       <c r="C118" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D118" s="3">
-        <v>720</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B119" s="2">
         <v>2025</v>
       </c>
       <c r="C119" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D119" s="3">
-        <v>288</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B120" s="2">
         <v>2025</v>
       </c>
       <c r="C120" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D120" s="3">
-        <v>241</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B121" s="2">
         <v>2025</v>
       </c>
       <c r="C121" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D121" s="3">
-        <v>271</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B122" s="2">
         <v>2025</v>
       </c>
       <c r="C122" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122" s="3">
-        <v>267</v>
+        <v>683</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B123" s="2">
         <v>2025</v>
       </c>
       <c r="C123" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D123" s="3">
-        <v>284</v>
+        <v>611</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B124" s="2">
         <v>2025</v>
       </c>
       <c r="C124" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D124" s="3">
-        <v>272</v>
+        <v>687</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B125" s="2">
         <v>2025</v>
       </c>
       <c r="C125" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D125" s="3">
-        <v>292</v>
+        <v>666</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B126" s="2">
         <v>2025</v>
       </c>
       <c r="C126" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D126" s="3">
-        <v>275</v>
+        <v>639</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B127" s="2">
         <v>2025</v>
       </c>
       <c r="C127" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D127" s="3">
-        <v>247</v>
+        <v>653</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B128" s="2">
         <v>2025</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D128" s="3">
-        <v>350</v>
+        <v>671</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B129" s="2">
         <v>2025</v>
       </c>
       <c r="C129" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D129" s="3">
-        <v>356</v>
+        <v>615</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B130" s="2">
         <v>2025</v>
       </c>
       <c r="C130" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D130" s="3">
-        <v>466</v>
+        <v>720</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B131" s="2">
         <v>2025</v>
       </c>
       <c r="C131" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D131" s="3">
-        <v>459</v>
+        <v>684</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B132" s="2">
         <v>2025</v>
       </c>
       <c r="C132" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D132" s="3">
-        <v>498</v>
+        <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B133" s="2">
         <v>2025</v>
       </c>
       <c r="C133" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D133" s="3">
-        <v>445</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B134" s="2">
         <v>2025</v>
       </c>
       <c r="C134" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D134" s="3">
-        <v>453</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B135" s="2">
         <v>2025</v>
       </c>
       <c r="C135" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D135" s="3">
-        <v>429</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B136" s="2">
         <v>2025</v>
       </c>
       <c r="C136" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D136" s="3">
-        <v>436</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B137" s="2">
         <v>2025</v>
       </c>
       <c r="C137" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D137" s="3">
-        <v>74</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B138" s="2">
         <v>2025</v>
       </c>
       <c r="C138" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D138" s="3">
-        <v>52</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B139" s="2">
         <v>2025</v>
       </c>
       <c r="C139" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D139" s="3">
-        <v>87</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B140" s="2">
         <v>2025</v>
       </c>
       <c r="C140" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D140" s="3">
-        <v>68</v>
+        <v>247</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B141" s="2">
         <v>2025</v>
       </c>
       <c r="C141" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D141" s="3">
-        <v>87</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B142" s="2">
         <v>2025</v>
       </c>
       <c r="C142" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D142" s="3">
-        <v>75</v>
+        <v>350</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B143" s="2">
         <v>2025</v>
       </c>
       <c r="C143" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D143" s="3">
-        <v>82</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B144" s="2">
         <v>2025</v>
       </c>
       <c r="C144" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D144" s="3">
-        <v>73</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B145" s="2">
         <v>2025</v>
       </c>
       <c r="C145" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D145" s="3">
-        <v>67</v>
+        <v>459</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B146" s="2">
         <v>2025</v>
       </c>
       <c r="C146" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D146" s="3">
-        <v>593</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B147" s="2">
         <v>2025</v>
       </c>
       <c r="C147" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D147" s="3">
-        <v>575</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B148" s="2">
         <v>2025</v>
       </c>
       <c r="C148" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D148" s="3">
-        <v>693</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B149" s="2">
         <v>2025</v>
       </c>
       <c r="C149" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D149" s="3">
-        <v>628</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B150" s="2">
         <v>2025</v>
       </c>
       <c r="C150" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D150" s="3">
-        <v>665</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B151" s="2">
         <v>2025</v>
       </c>
       <c r="C151" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D151" s="3">
-        <v>596</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B152" s="2">
         <v>2025</v>
       </c>
       <c r="C152" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D152" s="3">
-        <v>563</v>
+        <v>74</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B153" s="2">
         <v>2025</v>
       </c>
       <c r="C153" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D153" s="3">
-        <v>536</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3</v>
+      </c>
+      <c r="D154" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C155" s="2">
+        <v>4</v>
+      </c>
+      <c r="D155" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C156" s="2">
+        <v>5</v>
+      </c>
+      <c r="D156" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C157" s="2">
+        <v>6</v>
+      </c>
+      <c r="D157" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C158" s="2">
+        <v>7</v>
+      </c>
+      <c r="D158" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C159" s="2">
+        <v>8</v>
+      </c>
+      <c r="D159" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C160" s="2">
+        <v>9</v>
+      </c>
+      <c r="D160" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C161" s="2">
+        <v>10</v>
+      </c>
+      <c r="D161" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C154" s="2">
+      <c r="B162" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1</v>
+      </c>
+      <c r="D162" s="3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C163" s="2">
+        <v>2</v>
+      </c>
+      <c r="D163" s="3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C164" s="2">
+        <v>3</v>
+      </c>
+      <c r="D164" s="3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C165" s="2">
+        <v>4</v>
+      </c>
+      <c r="D165" s="3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5</v>
+      </c>
+      <c r="D166" s="3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C167" s="2">
+        <v>6</v>
+      </c>
+      <c r="D167" s="3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C168" s="2">
+        <v>7</v>
+      </c>
+      <c r="D168" s="3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C169" s="2">
+        <v>8</v>
+      </c>
+      <c r="D169" s="3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C170" s="2">
         <v>9</v>
       </c>
-      <c r="D154" s="3">
-        <v>597</v>
+      <c r="D170" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C171" s="2">
+        <v>10</v>
+      </c>
+      <c r="D171" s="3">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0b0293c2-191e-4088-96c9-a881010ce1ad" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee1baa49-d775-490f-95a0-0be6b1b30548">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001F758B6196B0F49AC2B800DFBC943B3" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4cb996f52a9a15401b375abb1969541e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee1baa49-d775-490f-95a0-0be6b1b30548" xmlns:ns3="0b0293c2-191e-4088-96c9-a881010ce1ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3b9a98b1bf172f667c1109616c689a" ns2:_="" ns3:_="">
-    <xsd:import namespace="ee1baa49-d775-490f-95a0-0be6b1b30548"/>
-    <xsd:import namespace="0b0293c2-191e-4088-96c9-a881010ce1ad"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee1baa49-d775-490f-95a0-0be6b1b30548" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7af98bd1-2354-4ddb-b15f-75f5f3c88b53" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0b0293c2-191e-4088-96c9-a881010ce1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{31baf46e-eed5-4ebd-ba89-72a3afe19d19}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0b0293c2-191e-4088-96c9-a881010ce1ad">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{084353D4-4B01-41E8-9788-F1F848772AE7}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25741F53-594B-4395-A79C-067551438C74}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C46D7041-D712-4669-A1F7-7D2D0AACCEF5}"/>
 </file>